--- a/Turma 462 - Outubro 2017/Aula 2/Aula Se 2.xlsx
+++ b/Turma 462 - Outubro 2017/Aula 2/Aula Se 2.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Media" sheetId="1" r:id="rId1"/>
-    <sheet name="Media_Poderada" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
+    <sheet name="Media_Poderada" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Márcio</t>
   </si>
@@ -76,19 +74,30 @@
   </si>
   <si>
     <t>cont se</t>
-  </si>
-  <si>
-    <t>marcio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +107,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -143,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -240,19 +242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="0"/>
       </left>
@@ -272,17 +261,6 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -293,28 +271,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,227 +318,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171129</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4000499" y="0"/>
-          <a:ext cx="1176131" cy="361629"/>
-          <a:chOff x="9009915" y="332447"/>
-          <a:chExt cx="3182085" cy="978406"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="22842"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9009915" y="332447"/>
-            <a:ext cx="3177322" cy="753404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="76760"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9014678" y="1083922"/>
-            <a:ext cx="3177322" cy="226931"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57977</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Texto explicativo retangular 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6278217" y="637760"/>
-          <a:ext cx="2559326" cy="1374913"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -40898"/>
-            <a:gd name="adj2" fmla="val 82982"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1600">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Se</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1600" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> a média for maior que 6 esta aprovado, se menor reprovado.</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1600">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>107673</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -587,8 +342,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5549623" y="0"/>
-          <a:ext cx="1169505" cy="361629"/>
+          <a:off x="5560736" y="0"/>
+          <a:ext cx="1172680" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -1120,207 +875,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:I6"/>
-    <mergeCell ref="B1:I2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1350,216 +943,230 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <f>(C9*2/10)+(D9*3/10)+(E9*5/10)</f>
         <v>10</v>
       </c>
-      <c r="G9" s="12" t="str">
-        <f>IF(F9&gt;=6,"Aprovado direto",IF(F9&gt;=4,"Recuperação","Reprovado"))</f>
-        <v>Aprovado direto</v>
+      <c r="G9" s="7" t="str">
+        <f>IF(F9&gt;=6,"Aprovado",IF(F9&gt;=4,"Recuperacao","Reprovado"))</f>
+        <v>Aprovado</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>9.5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>8.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <f t="shared" ref="F10:F14" si="0">(C10*2/10)+(D10*3/10)+(E10*5/10)</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="G10" s="12" t="str">
-        <f t="shared" ref="G10:G14" si="1">IF(F10&gt;=6,"Aprovado direto",IF(F10&gt;=4,"Recuperação","Reprovado"))</f>
-        <v>Aprovado direto</v>
+      <c r="G10" s="7" t="str">
+        <f t="shared" ref="G10:G14" si="1">IF(F10&gt;=6,"Aprovado",IF(F10&gt;=4,"Recuperacao","Reprovado"))</f>
+        <v>Aprovado</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>5.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
         <v>9.5</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Aprovado direto</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Reprovado</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Recuperação</v>
+        <v>Recuperacao</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>9</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>9.5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Aprovado direto</v>
+        <v>Aprovado</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="13" t="e">
+      <c r="F17" s="12" t="e">
         <f>com</f>
         <v>#NAME?</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="C18" s="7">
+        <f>COUNTA(B9:B14)</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="C19" s="7">
+        <f>COUNTIF(G9:G14,"Aprovado")</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="C20" s="7">
+        <f>COUNTIF(G9:G14,"Reprovado")</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="C21" s="7">
+        <f>COUNTIF(F9:F14,10)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="C22" s="7">
+        <f>SUMIF(G9:G14,"Aprovado",F9:F14)/C19</f>
+        <v>8.7125000000000004</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1571,88 +1178,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <f>COUNTA(A1:A15)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3468</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Turma 462 - Outubro 2017/Aula 2/Aula Se 2.xlsx
+++ b/Turma 462 - Outubro 2017/Aula 2/Aula Se 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,14 +972,8 @@
       <c r="E9" s="5">
         <v>10</v>
       </c>
-      <c r="F9" s="6">
-        <f>(C9*2/10)+(D9*3/10)+(E9*5/10)</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f>IF(F9&gt;=6,"Aprovado",IF(F9&gt;=4,"Recuperacao","Reprovado"))</f>
-        <v>Aprovado</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -994,14 +988,8 @@
       <c r="E10" s="9">
         <v>8.5</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F14" si="0">(C10*2/10)+(D10*3/10)+(E10*5/10)</f>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" ref="G10:G14" si="1">IF(F10&gt;=6,"Aprovado",IF(F10&gt;=4,"Recuperacao","Reprovado"))</f>
-        <v>Aprovado</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -1016,14 +1004,8 @@
       <c r="E11" s="9">
         <v>9.5</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Aprovado</v>
-      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -1038,14 +1020,8 @@
       <c r="E12" s="9">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Reprovado</v>
-      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -1060,14 +1036,8 @@
       <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Recuperacao</v>
-      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -1082,14 +1052,8 @@
       <c r="E14" s="11">
         <v>9.5</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Aprovado</v>
-      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,10 +1068,7 @@
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="7">
-        <f>COUNTA(B9:B14)</f>
-        <v>6</v>
-      </c>
+      <c r="C18" s="7"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
         <v>18</v>
@@ -1118,10 +1079,7 @@
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7">
-        <f>COUNTIF(G9:G14,"Aprovado")</f>
-        <v>4</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
         <v>19</v>
@@ -1132,10 +1090,7 @@
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7">
-        <f>COUNTIF(G9:G14,"Reprovado")</f>
-        <v>1</v>
-      </c>
+      <c r="C20" s="7"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
         <v>19</v>
@@ -1146,10 +1101,7 @@
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7">
-        <f>COUNTIF(F9:F14,10)</f>
-        <v>1</v>
-      </c>
+      <c r="C21" s="7"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
         <v>19</v>
@@ -1160,10 +1112,7 @@
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7">
-        <f>SUMIF(G9:G14,"Aprovado",F9:F14)/C19</f>
-        <v>8.7125000000000004</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
